--- a/biology/Zoologie/Eurema_portoricensis/Eurema_portoricensis.xlsx
+++ b/biology/Zoologie/Eurema_portoricensis/Eurema_portoricensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema portoricensis est une espèce de papillons de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema. Elle est endémique de Porto Rico[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema portoricensis est une espèce de papillons de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema. Elle est endémique de Porto Rico.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Eurema portoricensis a été décrite en 1877 par Dewitz (d) sous le protonyme de Terias portoricensis.
-Synonyme : Terias tenera Avinoff, 1926 ; Pyrisitia portoricensis[2].
+Synonyme : Terias tenera Avinoff, 1926 ; Pyrisitia portoricensis.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema portoricensis se nomme Puerto Rican Yellow en anglais.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema portoricensis présente sur le dessus des ailes jaune d'or bordées finement de marron chez le mâle, uniquement au niveau de l'apex des ailes antérieures chez la femelle.
 Le revers est jaune avec de fines petites marques marron.
@@ -603,12 +621,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema portoricensis est présent à Porto Rico.
+</t>
         </is>
       </c>
     </row>
@@ -638,9 +659,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurema portoricensis est présent à Porto Rico[2].
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
